--- a/data/pca/factorExposure/factorExposure_2016-04-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-04-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01123803538048611</v>
+        <v>0.01561369162925253</v>
       </c>
       <c r="C2">
-        <v>0.05143120616546534</v>
+        <v>0.03828608562747754</v>
       </c>
       <c r="D2">
-        <v>0.04293462370160279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06307947425509565</v>
+      </c>
+      <c r="E2">
+        <v>0.09417879294083077</v>
+      </c>
+      <c r="F2">
+        <v>-0.08831363279887959</v>
+      </c>
+      <c r="G2">
+        <v>-0.02444687330700515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04265351266242196</v>
+        <v>0.02617115752695772</v>
       </c>
       <c r="C3">
-        <v>0.1203600127222655</v>
+        <v>0.06625243222807742</v>
       </c>
       <c r="D3">
-        <v>0.08455816506725619</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07265331593966154</v>
+      </c>
+      <c r="E3">
+        <v>0.07013709299000601</v>
+      </c>
+      <c r="F3">
+        <v>0.02040104070763896</v>
+      </c>
+      <c r="G3">
+        <v>-0.04996815940328217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06337283277476782</v>
+        <v>0.06054981399294776</v>
       </c>
       <c r="C4">
-        <v>0.06330255733003215</v>
+        <v>0.06316658374490144</v>
       </c>
       <c r="D4">
-        <v>0.02660773019494337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05718555380922798</v>
+      </c>
+      <c r="E4">
+        <v>0.09204165437667179</v>
+      </c>
+      <c r="F4">
+        <v>-0.05039622677000841</v>
+      </c>
+      <c r="G4">
+        <v>-0.08226354956152318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04062014985361463</v>
+        <v>0.03709991570032681</v>
       </c>
       <c r="C6">
-        <v>0.03666788111568778</v>
+        <v>0.02739685291875642</v>
       </c>
       <c r="D6">
-        <v>0.03052927594847522</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.0634777723263697</v>
+      </c>
+      <c r="E6">
+        <v>0.08853638984583256</v>
+      </c>
+      <c r="F6">
+        <v>-0.0371161485416884</v>
+      </c>
+      <c r="G6">
+        <v>-0.06048818387712916</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02688803177968205</v>
+        <v>0.02104760055993568</v>
       </c>
       <c r="C7">
-        <v>0.04086690590481035</v>
+        <v>0.03673134652869964</v>
       </c>
       <c r="D7">
-        <v>-0.006003088088205485</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0400785890920077</v>
+      </c>
+      <c r="E7">
+        <v>0.06856342156320418</v>
+      </c>
+      <c r="F7">
+        <v>-0.07672022506868009</v>
+      </c>
+      <c r="G7">
+        <v>-0.0939766279775865</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.007866252162010399</v>
+        <v>0.006623860770865714</v>
       </c>
       <c r="C8">
-        <v>0.03961458075243243</v>
+        <v>0.03420825199338706</v>
       </c>
       <c r="D8">
-        <v>0.0239682191641139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03521056484495418</v>
+      </c>
+      <c r="E8">
+        <v>0.06083473035659622</v>
+      </c>
+      <c r="F8">
+        <v>-0.02204028783451776</v>
+      </c>
+      <c r="G8">
+        <v>-0.03563401849294864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.04001957132021728</v>
+        <v>0.04112660882059178</v>
       </c>
       <c r="C9">
-        <v>0.04661107850055572</v>
+        <v>0.04997031972316177</v>
       </c>
       <c r="D9">
-        <v>0.01138006182429491</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04095849999821854</v>
+      </c>
+      <c r="E9">
+        <v>0.07008615914549143</v>
+      </c>
+      <c r="F9">
+        <v>-0.06430860636658192</v>
+      </c>
+      <c r="G9">
+        <v>-0.07575983777490584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07213370992894155</v>
+        <v>0.09879455808610557</v>
       </c>
       <c r="C10">
-        <v>-0.1937756390134005</v>
+        <v>-0.2026093501016275</v>
       </c>
       <c r="D10">
-        <v>-0.006374814833084179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01169907945167729</v>
+      </c>
+      <c r="E10">
+        <v>0.03160466722322634</v>
+      </c>
+      <c r="F10">
+        <v>-0.02095768678202383</v>
+      </c>
+      <c r="G10">
+        <v>-0.03555066941809401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04342681268929022</v>
+        <v>0.03789935934756994</v>
       </c>
       <c r="C11">
-        <v>0.05030430041476229</v>
+        <v>0.04733325512869839</v>
       </c>
       <c r="D11">
-        <v>0.01282050152352104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0310367073752076</v>
+      </c>
+      <c r="E11">
+        <v>0.02775931954750158</v>
+      </c>
+      <c r="F11">
+        <v>-0.04537504901767922</v>
+      </c>
+      <c r="G11">
+        <v>-0.06600839401728596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04621017437632552</v>
+        <v>0.04012336565103511</v>
       </c>
       <c r="C12">
-        <v>0.04530404367236707</v>
+        <v>0.04548109250999987</v>
       </c>
       <c r="D12">
-        <v>0.002229999512211585</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02702597238739641</v>
+      </c>
+      <c r="E12">
+        <v>0.03517851303002171</v>
+      </c>
+      <c r="F12">
+        <v>-0.0466778732231972</v>
+      </c>
+      <c r="G12">
+        <v>-0.06266483451048716</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01650469849306931</v>
+        <v>0.01422312238812011</v>
       </c>
       <c r="C13">
-        <v>0.05316551021117912</v>
+        <v>0.04192802923539507</v>
       </c>
       <c r="D13">
-        <v>0.01060762594943077</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04897201218548528</v>
+      </c>
+      <c r="E13">
+        <v>0.1019479763708212</v>
+      </c>
+      <c r="F13">
+        <v>-0.06903346251718641</v>
+      </c>
+      <c r="G13">
+        <v>-0.09102152447124645</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01080380400850871</v>
+        <v>0.007157030888971149</v>
       </c>
       <c r="C14">
-        <v>0.03605188362516032</v>
+        <v>0.03083957738649912</v>
       </c>
       <c r="D14">
-        <v>-0.007182419642436748</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02654992530995084</v>
+      </c>
+      <c r="E14">
+        <v>0.05168785089907722</v>
+      </c>
+      <c r="F14">
+        <v>-0.08547544767786594</v>
+      </c>
+      <c r="G14">
+        <v>-0.0775131317536181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2.009547960850612e-05</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005611754062736713</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.008721545979043611</v>
+      </c>
+      <c r="E15">
+        <v>0.004693727147888601</v>
+      </c>
+      <c r="F15">
+        <v>-0.007154208761887906</v>
+      </c>
+      <c r="G15">
+        <v>-0.006670092783874241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04107494000341868</v>
+        <v>0.0360494931184524</v>
       </c>
       <c r="C16">
-        <v>0.04763772306717507</v>
+        <v>0.04445814584718898</v>
       </c>
       <c r="D16">
-        <v>0.004615653837073502</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02594838808214248</v>
+      </c>
+      <c r="E16">
+        <v>0.04184360195046107</v>
+      </c>
+      <c r="F16">
+        <v>-0.05593073707330486</v>
+      </c>
+      <c r="G16">
+        <v>-0.05292745069826887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.027348963154032</v>
+        <v>0.0185537453246862</v>
       </c>
       <c r="C19">
-        <v>0.06170833018484582</v>
+        <v>0.04562043811783378</v>
       </c>
       <c r="D19">
-        <v>0.09173139593231232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09274106746088</v>
+      </c>
+      <c r="E19">
+        <v>0.1141584476203311</v>
+      </c>
+      <c r="F19">
+        <v>-0.06587234159347785</v>
+      </c>
+      <c r="G19">
+        <v>-0.03528569995270126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01990792921946094</v>
+        <v>0.01563416956394527</v>
       </c>
       <c r="C20">
-        <v>0.04897890493569065</v>
+        <v>0.03981998953230924</v>
       </c>
       <c r="D20">
-        <v>0.009352911634092836</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03565827367220435</v>
+      </c>
+      <c r="E20">
+        <v>0.08014922245487745</v>
+      </c>
+      <c r="F20">
+        <v>-0.06146804125768426</v>
+      </c>
+      <c r="G20">
+        <v>-0.0613876382995356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01443193994592263</v>
+        <v>0.01243504318518565</v>
       </c>
       <c r="C21">
-        <v>0.05394460490255731</v>
+        <v>0.04369318641669172</v>
       </c>
       <c r="D21">
-        <v>0.02870167895312583</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.05714892291232501</v>
+      </c>
+      <c r="E21">
+        <v>0.1282401507439522</v>
+      </c>
+      <c r="F21">
+        <v>-0.09913457819750347</v>
+      </c>
+      <c r="G21">
+        <v>-0.08899321479371466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001789381257224525</v>
+        <v>0.004214067895929166</v>
       </c>
       <c r="C22">
-        <v>0.001107260891022464</v>
+        <v>0.02905275212081057</v>
       </c>
       <c r="D22">
-        <v>0.006664265459045147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.05116981743327786</v>
+      </c>
+      <c r="E22">
+        <v>0.05716893020030912</v>
+      </c>
+      <c r="F22">
+        <v>0.01575922901385771</v>
+      </c>
+      <c r="G22">
+        <v>-0.06235366215581741</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001795379014950409</v>
+        <v>0.004318228052189961</v>
       </c>
       <c r="C23">
-        <v>0.001127197475763168</v>
+        <v>0.0290846548412067</v>
       </c>
       <c r="D23">
-        <v>0.006655575895067327</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.05050027478199284</v>
+      </c>
+      <c r="E23">
+        <v>0.05746640583010385</v>
+      </c>
+      <c r="F23">
+        <v>0.01589137547689401</v>
+      </c>
+      <c r="G23">
+        <v>-0.06247471788009978</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03783413248075575</v>
+        <v>0.03658156272651071</v>
       </c>
       <c r="C24">
-        <v>0.04954892542717595</v>
+        <v>0.05219991311287803</v>
       </c>
       <c r="D24">
-        <v>0.007156040665559781</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02556344799863212</v>
+      </c>
+      <c r="E24">
+        <v>0.04285450477866376</v>
+      </c>
+      <c r="F24">
+        <v>-0.05981454685046076</v>
+      </c>
+      <c r="G24">
+        <v>-0.06430256602569796</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04942399588310064</v>
+        <v>0.04438121849112482</v>
       </c>
       <c r="C25">
-        <v>0.05923862671510285</v>
+        <v>0.05544635528091426</v>
       </c>
       <c r="D25">
-        <v>-0.004449287537392685</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02297848599643958</v>
+      </c>
+      <c r="E25">
+        <v>0.03538657067612404</v>
+      </c>
+      <c r="F25">
+        <v>-0.05008186529563723</v>
+      </c>
+      <c r="G25">
+        <v>-0.07655620952531351</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01864456424915496</v>
+        <v>0.01691774407239941</v>
       </c>
       <c r="C26">
-        <v>0.01745983088757107</v>
+        <v>0.01657732651860683</v>
       </c>
       <c r="D26">
-        <v>0.001251466659531243</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02456954365527153</v>
+      </c>
+      <c r="E26">
+        <v>0.05005458883550038</v>
+      </c>
+      <c r="F26">
+        <v>-0.06533975252392313</v>
+      </c>
+      <c r="G26">
+        <v>-0.04707295622923023</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08692376694475935</v>
+        <v>0.1352239699016873</v>
       </c>
       <c r="C28">
-        <v>-0.2531718455070309</v>
+        <v>-0.2572410269998445</v>
       </c>
       <c r="D28">
-        <v>-0.007295917665157013</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.0276921970533214</v>
+      </c>
+      <c r="E28">
+        <v>0.05467207650332911</v>
+      </c>
+      <c r="F28">
+        <v>-0.03882661789254406</v>
+      </c>
+      <c r="G28">
+        <v>-0.05279757944860573</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008403638328893813</v>
+        <v>0.007209754979576396</v>
       </c>
       <c r="C29">
-        <v>0.03153946653631888</v>
+        <v>0.02862074132319765</v>
       </c>
       <c r="D29">
-        <v>-0.0133212601421449</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01801314643379468</v>
+      </c>
+      <c r="E29">
+        <v>0.05223099622286725</v>
+      </c>
+      <c r="F29">
+        <v>-0.0763467272735876</v>
+      </c>
+      <c r="G29">
+        <v>-0.08192875710051033</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04826165776511217</v>
+        <v>0.04488866699739442</v>
       </c>
       <c r="C30">
-        <v>0.04964057183610152</v>
+        <v>0.05684881028643903</v>
       </c>
       <c r="D30">
-        <v>0.07769907165947952</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1039649446169182</v>
+      </c>
+      <c r="E30">
+        <v>0.0788392047720046</v>
+      </c>
+      <c r="F30">
+        <v>-0.07002018452808056</v>
+      </c>
+      <c r="G30">
+        <v>-0.06006467668413375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06204956651743578</v>
+        <v>0.05994426647835473</v>
       </c>
       <c r="C31">
-        <v>0.04580831177294328</v>
+        <v>0.06175351056046576</v>
       </c>
       <c r="D31">
-        <v>-0.04579493656853086</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01674553735825932</v>
+      </c>
+      <c r="E31">
+        <v>0.0714369568202181</v>
+      </c>
+      <c r="F31">
+        <v>-0.03013842112871511</v>
+      </c>
+      <c r="G31">
+        <v>-0.07842031585790209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.003909404273845634</v>
+        <v>0.008044551419427224</v>
       </c>
       <c r="C32">
-        <v>0.04301585285993328</v>
+        <v>0.03573873701417415</v>
       </c>
       <c r="D32">
-        <v>0.05614722957153222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05497656831533328</v>
+      </c>
+      <c r="E32">
+        <v>0.05847540190395173</v>
+      </c>
+      <c r="F32">
+        <v>-0.07008435297407979</v>
+      </c>
+      <c r="G32">
+        <v>-0.05925752528785414</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03686048419576086</v>
+        <v>0.02943958458676578</v>
       </c>
       <c r="C33">
-        <v>0.05543448833655552</v>
+        <v>0.05150224753913588</v>
       </c>
       <c r="D33">
-        <v>0.03737980489221703</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07222145934993779</v>
+      </c>
+      <c r="E33">
+        <v>0.08935740607030081</v>
+      </c>
+      <c r="F33">
+        <v>-0.0769090924940298</v>
+      </c>
+      <c r="G33">
+        <v>-0.09332173795586347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04624606623477213</v>
+        <v>0.04160197558869361</v>
       </c>
       <c r="C34">
-        <v>0.06498783919990669</v>
+        <v>0.06298955472021296</v>
       </c>
       <c r="D34">
-        <v>0.01920494803018183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03743496761163837</v>
+      </c>
+      <c r="E34">
+        <v>0.01776524910466772</v>
+      </c>
+      <c r="F34">
+        <v>-0.05859857658032971</v>
+      </c>
+      <c r="G34">
+        <v>-0.06642349030197618</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01844618621682132</v>
+        <v>0.0154065414337204</v>
       </c>
       <c r="C36">
-        <v>0.01533901946203759</v>
+        <v>0.01313096246168229</v>
       </c>
       <c r="D36">
-        <v>-0.00437687127927059</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02479042743023074</v>
+      </c>
+      <c r="E36">
+        <v>0.06098658766462772</v>
+      </c>
+      <c r="F36">
+        <v>-0.0563871106492595</v>
+      </c>
+      <c r="G36">
+        <v>-0.06287899207364255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03155404428588667</v>
+        <v>0.02452500476140246</v>
       </c>
       <c r="C38">
-        <v>0.03224126190021517</v>
+        <v>0.02449246055386375</v>
       </c>
       <c r="D38">
-        <v>-0.01353972968724643</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02141670240535085</v>
+      </c>
+      <c r="E38">
+        <v>0.0500256460697279</v>
+      </c>
+      <c r="F38">
+        <v>-0.04528502537513346</v>
+      </c>
+      <c r="G38">
+        <v>-0.04360853232619258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04912442410693837</v>
+        <v>0.04254487422143446</v>
       </c>
       <c r="C39">
-        <v>0.06119129892184693</v>
+        <v>0.06241521345645143</v>
       </c>
       <c r="D39">
-        <v>0.01984795304322872</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05124697896163011</v>
+      </c>
+      <c r="E39">
+        <v>0.04917821145903643</v>
+      </c>
+      <c r="F39">
+        <v>-0.07867232760432211</v>
+      </c>
+      <c r="G39">
+        <v>-0.05716247617245287</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01220107486913036</v>
+        <v>0.01479573325127234</v>
       </c>
       <c r="C40">
-        <v>0.05410092404020576</v>
+        <v>0.03809301860494631</v>
       </c>
       <c r="D40">
-        <v>0.01684724477363686</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03159408774050141</v>
+      </c>
+      <c r="E40">
+        <v>0.08898824283346471</v>
+      </c>
+      <c r="F40">
+        <v>-0.04423155767363037</v>
+      </c>
+      <c r="G40">
+        <v>-0.09682230513681622</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02382101896237844</v>
+        <v>0.01999884354759865</v>
       </c>
       <c r="C41">
-        <v>0.01244387783117532</v>
+        <v>0.009446587388351071</v>
       </c>
       <c r="D41">
-        <v>7.86252941944835e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01695449670033773</v>
+      </c>
+      <c r="E41">
+        <v>0.06233911176626446</v>
+      </c>
+      <c r="F41">
+        <v>-0.0496131503314469</v>
+      </c>
+      <c r="G41">
+        <v>-0.05063519234588271</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.045529999872887</v>
+        <v>0.03211406805170029</v>
       </c>
       <c r="C43">
-        <v>0.03370553635688302</v>
+        <v>0.02514701492013593</v>
       </c>
       <c r="D43">
-        <v>0.01914027621855995</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04470273741189466</v>
+      </c>
+      <c r="E43">
+        <v>0.07749670658349032</v>
+      </c>
+      <c r="F43">
+        <v>-0.0460493749407252</v>
+      </c>
+      <c r="G43">
+        <v>-0.07676362373506035</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01693648656268188</v>
+        <v>0.01827018248817929</v>
       </c>
       <c r="C44">
-        <v>0.07077372342493782</v>
+        <v>0.04805938618382723</v>
       </c>
       <c r="D44">
-        <v>0.007281462403046782</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03322459726974452</v>
+      </c>
+      <c r="E44">
+        <v>0.08969430180548017</v>
+      </c>
+      <c r="F44">
+        <v>-0.06784091273341104</v>
+      </c>
+      <c r="G44">
+        <v>-0.04545514800331783</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01225174893423808</v>
+        <v>0.01241180016867641</v>
       </c>
       <c r="C46">
-        <v>0.02686678628959734</v>
+        <v>0.02893950358012734</v>
       </c>
       <c r="D46">
-        <v>-0.01439319546489636</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01448925856430167</v>
+      </c>
+      <c r="E46">
+        <v>0.06115911524002931</v>
+      </c>
+      <c r="F46">
+        <v>-0.08774237814999182</v>
+      </c>
+      <c r="G46">
+        <v>-0.08094619363719956</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09158522362193519</v>
+        <v>0.09359258883534195</v>
       </c>
       <c r="C47">
-        <v>0.06641332256850532</v>
+        <v>0.0783389961701626</v>
       </c>
       <c r="D47">
-        <v>-0.04618947904619109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.0249780594486575</v>
+      </c>
+      <c r="E47">
+        <v>0.06404417111379065</v>
+      </c>
+      <c r="F47">
+        <v>-0.03096066906820598</v>
+      </c>
+      <c r="G47">
+        <v>-0.0762595241522817</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02076975643030472</v>
+        <v>0.01864549246568235</v>
       </c>
       <c r="C48">
-        <v>0.01342191403175442</v>
+        <v>0.01607022815237162</v>
       </c>
       <c r="D48">
-        <v>-0.01792350223623594</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01211923166285484</v>
+      </c>
+      <c r="E48">
+        <v>0.07240843609546675</v>
+      </c>
+      <c r="F48">
+        <v>-0.07113384366380739</v>
+      </c>
+      <c r="G48">
+        <v>-0.06678263264505725</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08554876825242713</v>
+        <v>0.07292667060034042</v>
       </c>
       <c r="C50">
-        <v>0.08073104445254102</v>
+        <v>0.07414157823398485</v>
       </c>
       <c r="D50">
-        <v>-0.04608821486601868</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.008730163689410068</v>
+      </c>
+      <c r="E50">
+        <v>0.07727532634569577</v>
+      </c>
+      <c r="F50">
+        <v>-0.004736317750371434</v>
+      </c>
+      <c r="G50">
+        <v>-0.0929276044016653</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01897040519797067</v>
+        <v>0.01237109924956405</v>
       </c>
       <c r="C51">
-        <v>0.04901947158540681</v>
+        <v>0.03139295787645248</v>
       </c>
       <c r="D51">
-        <v>0.03906252171119481</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05626080377774163</v>
+      </c>
+      <c r="E51">
+        <v>0.05111324533007985</v>
+      </c>
+      <c r="F51">
+        <v>-0.07415186339265788</v>
+      </c>
+      <c r="G51">
+        <v>-0.05463348996011862</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08451613637474842</v>
+        <v>0.09800087056789925</v>
       </c>
       <c r="C53">
-        <v>0.07588112766131867</v>
+        <v>0.08395031850431657</v>
       </c>
       <c r="D53">
-        <v>-0.06665522640665851</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.06266811751562033</v>
+      </c>
+      <c r="E53">
+        <v>0.06597885084248432</v>
+      </c>
+      <c r="F53">
+        <v>-0.03267740314951032</v>
+      </c>
+      <c r="G53">
+        <v>-0.0681083803546846</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03853591655273453</v>
+        <v>0.03123992515001896</v>
       </c>
       <c r="C54">
-        <v>0.03408633666288042</v>
+        <v>0.03148835954926615</v>
       </c>
       <c r="D54">
-        <v>-0.004924152930211609</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02592443729308468</v>
+      </c>
+      <c r="E54">
+        <v>0.05728514351611436</v>
+      </c>
+      <c r="F54">
+        <v>-0.0783971901304085</v>
+      </c>
+      <c r="G54">
+        <v>-0.08187767040186281</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08110780526621819</v>
+        <v>0.09112164380901411</v>
       </c>
       <c r="C55">
-        <v>0.05141377365589549</v>
+        <v>0.06622684374303493</v>
       </c>
       <c r="D55">
-        <v>-0.0723259419172672</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.06179153476748262</v>
+      </c>
+      <c r="E55">
+        <v>0.04217547293455793</v>
+      </c>
+      <c r="F55">
+        <v>-0.00920289918573485</v>
+      </c>
+      <c r="G55">
+        <v>-0.05430353819920951</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1545391475255945</v>
+        <v>0.1564795488051761</v>
       </c>
       <c r="C56">
-        <v>0.07976960295876852</v>
+        <v>0.09906836304547681</v>
       </c>
       <c r="D56">
-        <v>-0.06227705626668686</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05555925317999034</v>
+      </c>
+      <c r="E56">
+        <v>0.03754323669693811</v>
+      </c>
+      <c r="F56">
+        <v>0.012732034815062</v>
+      </c>
+      <c r="G56">
+        <v>-0.02475827296553328</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05265294844338907</v>
+        <v>0.03343039253851461</v>
       </c>
       <c r="C58">
-        <v>0.003262438116376415</v>
+        <v>0.01570332857115744</v>
       </c>
       <c r="D58">
-        <v>0.5656843577956011</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3848011127028891</v>
+      </c>
+      <c r="E58">
+        <v>0.6219628888238509</v>
+      </c>
+      <c r="F58">
+        <v>0.446717101143993</v>
+      </c>
+      <c r="G58">
+        <v>0.4268401651770639</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1227054652625975</v>
+        <v>0.1388589398771634</v>
       </c>
       <c r="C59">
-        <v>-0.2048776000474696</v>
+        <v>-0.1923685334466411</v>
       </c>
       <c r="D59">
-        <v>0.02500766251856438</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03033893149363276</v>
+      </c>
+      <c r="E59">
+        <v>0.02934396816716944</v>
+      </c>
+      <c r="F59">
+        <v>-0.03197712691905071</v>
+      </c>
+      <c r="G59">
+        <v>0.009293971561637715</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3039681804076597</v>
+        <v>0.272877967639676</v>
       </c>
       <c r="C60">
-        <v>0.1147098823102072</v>
+        <v>0.1074907759134002</v>
       </c>
       <c r="D60">
-        <v>0.1887098258510489</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2525579651597363</v>
+      </c>
+      <c r="E60">
+        <v>-0.2377651910336909</v>
+      </c>
+      <c r="F60">
+        <v>0.08690004732628312</v>
+      </c>
+      <c r="G60">
+        <v>-0.03902101811026509</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04823608162099686</v>
+        <v>0.04420785898412993</v>
       </c>
       <c r="C61">
-        <v>0.05955576367653624</v>
+        <v>0.05787661937298454</v>
       </c>
       <c r="D61">
-        <v>0.01368066593456716</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04246209702082364</v>
+      </c>
+      <c r="E61">
+        <v>0.05033106474446694</v>
+      </c>
+      <c r="F61">
+        <v>-0.06279941497165535</v>
+      </c>
+      <c r="G61">
+        <v>-0.07206639996628655</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01935248741284431</v>
+        <v>0.01745728327779959</v>
       </c>
       <c r="C63">
-        <v>0.0336247008206976</v>
+        <v>0.03076532291856963</v>
       </c>
       <c r="D63">
-        <v>-0.02246143198778954</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01662363726231705</v>
+      </c>
+      <c r="E63">
+        <v>0.06230213828762445</v>
+      </c>
+      <c r="F63">
+        <v>-0.04732779524242147</v>
+      </c>
+      <c r="G63">
+        <v>-0.0724235510156207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.0516540364228701</v>
+        <v>0.05764764679138887</v>
       </c>
       <c r="C64">
-        <v>0.04892027063347323</v>
+        <v>0.05858374187586145</v>
       </c>
       <c r="D64">
-        <v>0.01191486536289528</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.008682732080121288</v>
+      </c>
+      <c r="E64">
+        <v>0.04400880355660285</v>
+      </c>
+      <c r="F64">
+        <v>-0.05812640815086363</v>
+      </c>
+      <c r="G64">
+        <v>-0.04885797155701132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08031247644127545</v>
+        <v>0.06486325082747077</v>
       </c>
       <c r="C65">
-        <v>0.0234978564099698</v>
+        <v>0.02516563526120277</v>
       </c>
       <c r="D65">
-        <v>0.0558446157104097</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08702767942930101</v>
+      </c>
+      <c r="E65">
+        <v>0.05490542793215571</v>
+      </c>
+      <c r="F65">
+        <v>-0.008131480991119629</v>
+      </c>
+      <c r="G65">
+        <v>-0.02194398496322131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06356070345458979</v>
+        <v>0.05441521189171181</v>
       </c>
       <c r="C66">
-        <v>0.08350033213421409</v>
+        <v>0.07968085256062196</v>
       </c>
       <c r="D66">
-        <v>0.03994558338577057</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07673585596044329</v>
+      </c>
+      <c r="E66">
+        <v>0.0623920527350375</v>
+      </c>
+      <c r="F66">
+        <v>-0.07009522304287093</v>
+      </c>
+      <c r="G66">
+        <v>-0.07142197126048047</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05201667420094206</v>
+        <v>0.04507907174944485</v>
       </c>
       <c r="C67">
-        <v>0.03225098834788731</v>
+        <v>0.0289507377698904</v>
       </c>
       <c r="D67">
-        <v>-0.0219086192038893</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.004298920790985337</v>
+      </c>
+      <c r="E67">
+        <v>0.02679816612910827</v>
+      </c>
+      <c r="F67">
+        <v>-0.03105594038486748</v>
+      </c>
+      <c r="G67">
+        <v>-0.03558004891368372</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1221031031065791</v>
+        <v>0.146784926687688</v>
       </c>
       <c r="C68">
-        <v>-0.282195233349353</v>
+        <v>-0.2450516565038505</v>
       </c>
       <c r="D68">
-        <v>-0.01217113444208119</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01504644872400825</v>
+      </c>
+      <c r="E68">
+        <v>0.03860351295469688</v>
+      </c>
+      <c r="F68">
+        <v>-0.0113269825221256</v>
+      </c>
+      <c r="G68">
+        <v>-0.02619137519519552</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09413287402007352</v>
+        <v>0.0890328504674463</v>
       </c>
       <c r="C69">
-        <v>0.0715430410893272</v>
+        <v>0.09025516118145102</v>
       </c>
       <c r="D69">
-        <v>-0.05262921442164478</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01511219834384419</v>
+      </c>
+      <c r="E69">
+        <v>0.05739248979732989</v>
+      </c>
+      <c r="F69">
+        <v>-0.06036147611800093</v>
+      </c>
+      <c r="G69">
+        <v>-0.06926417527797316</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1143769842856339</v>
+        <v>0.1418431047085782</v>
       </c>
       <c r="C71">
-        <v>-0.2603736954270174</v>
+        <v>-0.2445672983862295</v>
       </c>
       <c r="D71">
-        <v>0.005863885623327286</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002216713456148035</v>
+      </c>
+      <c r="E71">
+        <v>0.05136772870818996</v>
+      </c>
+      <c r="F71">
+        <v>-0.016217358987078</v>
+      </c>
+      <c r="G71">
+        <v>-0.06332422832897391</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09858561213593828</v>
+        <v>0.1050415442813039</v>
       </c>
       <c r="C72">
-        <v>0.04167469049488425</v>
+        <v>0.04855906098069068</v>
       </c>
       <c r="D72">
-        <v>0.003608429342686264</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.03533099740312582</v>
+      </c>
+      <c r="E72">
+        <v>0.01795769085329205</v>
+      </c>
+      <c r="F72">
+        <v>-0.03616254223827862</v>
+      </c>
+      <c r="G72">
+        <v>-0.09217309684750677</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3926939882327823</v>
+        <v>0.3303470123484686</v>
       </c>
       <c r="C73">
-        <v>0.04672754991947425</v>
+        <v>0.0686916905367693</v>
       </c>
       <c r="D73">
-        <v>0.4618464770652221</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.5071901994811258</v>
+      </c>
+      <c r="E73">
+        <v>-0.4613279357538415</v>
+      </c>
+      <c r="F73">
+        <v>0.2389205862454407</v>
+      </c>
+      <c r="G73">
+        <v>-0.0345244380036653</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1077005746461645</v>
+        <v>0.1124005772830782</v>
       </c>
       <c r="C74">
-        <v>0.09330898763908765</v>
+        <v>0.09235272110038507</v>
       </c>
       <c r="D74">
-        <v>-0.04706870494071531</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04747899239086123</v>
+      </c>
+      <c r="E74">
+        <v>0.05982467388515825</v>
+      </c>
+      <c r="F74">
+        <v>0.004169065149671072</v>
+      </c>
+      <c r="G74">
+        <v>-0.04836303934123798</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.256087643019854</v>
+        <v>0.2604825629144983</v>
       </c>
       <c r="C75">
-        <v>0.08507162755307596</v>
+        <v>0.1193406435767512</v>
       </c>
       <c r="D75">
-        <v>-0.1416762050661102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1532007620355854</v>
+      </c>
+      <c r="E75">
+        <v>0.03148539712554538</v>
+      </c>
+      <c r="F75">
+        <v>0.05967342229451587</v>
+      </c>
+      <c r="G75">
+        <v>0.04677598696430262</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1154707399342039</v>
+        <v>0.1295205852569857</v>
       </c>
       <c r="C76">
-        <v>0.0764486897393261</v>
+        <v>0.08877568956697877</v>
       </c>
       <c r="D76">
-        <v>-0.07602288276382319</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.08144447340595855</v>
+      </c>
+      <c r="E76">
+        <v>0.07407250386402679</v>
+      </c>
+      <c r="F76">
+        <v>-0.02019502276431421</v>
+      </c>
+      <c r="G76">
+        <v>-0.03750437175932744</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08543674668096567</v>
+        <v>0.06949408026106238</v>
       </c>
       <c r="C77">
-        <v>0.04154555205454347</v>
+        <v>0.05790368688792836</v>
       </c>
       <c r="D77">
-        <v>0.05317824137322945</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.05833915944608315</v>
+      </c>
+      <c r="E77">
+        <v>0.09392183495735774</v>
+      </c>
+      <c r="F77">
+        <v>-0.1752746359096485</v>
+      </c>
+      <c r="G77">
+        <v>0.1170764168390068</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.05097735477424273</v>
+        <v>0.04860563651175979</v>
       </c>
       <c r="C78">
-        <v>0.03746436988322562</v>
+        <v>0.05131143720289836</v>
       </c>
       <c r="D78">
-        <v>0.0275147930749482</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06348115406246958</v>
+      </c>
+      <c r="E78">
+        <v>0.05964159422740893</v>
+      </c>
+      <c r="F78">
+        <v>-0.0647225838769681</v>
+      </c>
+      <c r="G78">
+        <v>-0.06034891218317464</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.0002798482717266332</v>
+        <v>0.03383305247686363</v>
       </c>
       <c r="C79">
-        <v>0.000159684768161206</v>
+        <v>0.04747118689445555</v>
       </c>
       <c r="D79">
-        <v>0.001675757081315639</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.08259156749883351</v>
+      </c>
+      <c r="E79">
+        <v>0.06775825527730865</v>
+      </c>
+      <c r="F79">
+        <v>0.0215710669096194</v>
+      </c>
+      <c r="G79">
+        <v>-0.03296001159194449</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.0398995046864308</v>
+        <v>0.03058330507581507</v>
       </c>
       <c r="C80">
-        <v>0.05059706955205673</v>
+        <v>0.0509407717104256</v>
       </c>
       <c r="D80">
-        <v>0.02896303019867236</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03976099392556835</v>
+      </c>
+      <c r="E80">
+        <v>0.01505098044823008</v>
+      </c>
+      <c r="F80">
+        <v>-0.05618598692201859</v>
+      </c>
+      <c r="G80">
+        <v>0.003948273829201045</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1421338166962974</v>
+        <v>0.1420538255252999</v>
       </c>
       <c r="C81">
-        <v>0.06973401908936361</v>
+        <v>0.09002802490611382</v>
       </c>
       <c r="D81">
-        <v>-0.1099598138084966</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1248738671667577</v>
+      </c>
+      <c r="E81">
+        <v>0.07210551624255987</v>
+      </c>
+      <c r="F81">
+        <v>0.02413804896478175</v>
+      </c>
+      <c r="G81">
+        <v>0.008382670648846405</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1966270554057767</v>
+        <v>0.2299908431279147</v>
       </c>
       <c r="C82">
-        <v>0.0879101574903678</v>
+        <v>0.1514030935007602</v>
       </c>
       <c r="D82">
-        <v>-0.2001663033562326</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2520404404270698</v>
+      </c>
+      <c r="E82">
+        <v>-0.04391983029525048</v>
+      </c>
+      <c r="F82">
+        <v>-0.03650663737648728</v>
+      </c>
+      <c r="G82">
+        <v>-0.04407271554753683</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04442122641787978</v>
+        <v>0.02983110062762301</v>
       </c>
       <c r="C83">
-        <v>0.03021120162023415</v>
+        <v>0.04451444986706832</v>
       </c>
       <c r="D83">
-        <v>0.03495163677461444</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03134561861936944</v>
+      </c>
+      <c r="E83">
+        <v>0.02238720473164486</v>
+      </c>
+      <c r="F83">
+        <v>-0.02878950590247759</v>
+      </c>
+      <c r="G83">
+        <v>0.0003777961330176074</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0002360869764581405</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0006102759993903935</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0005230678723279083</v>
+      </c>
+      <c r="E84">
+        <v>0.003090137167777627</v>
+      </c>
+      <c r="F84">
+        <v>0.001221629169949252</v>
+      </c>
+      <c r="G84">
+        <v>-0.0009221169638911743</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2177572961739356</v>
+        <v>0.2022390389092736</v>
       </c>
       <c r="C85">
-        <v>0.09079312043108102</v>
+        <v>0.1086588032886553</v>
       </c>
       <c r="D85">
-        <v>-0.1642802980989971</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1308266444234969</v>
+      </c>
+      <c r="E85">
+        <v>-0.002494410671556129</v>
+      </c>
+      <c r="F85">
+        <v>0.1035452361438567</v>
+      </c>
+      <c r="G85">
+        <v>-0.01187140232755909</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01239928197951973</v>
+        <v>0.01460228522877385</v>
       </c>
       <c r="C86">
-        <v>0.0274917290523596</v>
+        <v>0.01812773421331656</v>
       </c>
       <c r="D86">
-        <v>0.04274410862933571</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.06459582617323956</v>
+      </c>
+      <c r="E86">
+        <v>0.07447766197173257</v>
+      </c>
+      <c r="F86">
+        <v>-0.0899620381557925</v>
+      </c>
+      <c r="G86">
+        <v>-0.06660123289800603</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.03018896509178702</v>
+        <v>0.02955891873663878</v>
       </c>
       <c r="C87">
-        <v>0.002789560862029194</v>
+        <v>0.01266946719658636</v>
       </c>
       <c r="D87">
-        <v>0.08387515248831609</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08547133180820844</v>
+      </c>
+      <c r="E87">
+        <v>0.1240123304941792</v>
+      </c>
+      <c r="F87">
+        <v>-0.07860136873723672</v>
+      </c>
+      <c r="G87">
+        <v>0.003719677621226916</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1099972164917626</v>
+        <v>0.09365759962653804</v>
       </c>
       <c r="C88">
-        <v>0.07943748116583844</v>
+        <v>0.06516751603885163</v>
       </c>
       <c r="D88">
-        <v>-0.0234930528579897</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01094649698773847</v>
+      </c>
+      <c r="E88">
+        <v>0.05227945115068829</v>
+      </c>
+      <c r="F88">
+        <v>-0.05293821322460204</v>
+      </c>
+      <c r="G88">
+        <v>-0.03171332138083816</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1739965867721875</v>
+        <v>0.2117727402976541</v>
       </c>
       <c r="C89">
-        <v>-0.3823262103909463</v>
+        <v>-0.3848787325835588</v>
       </c>
       <c r="D89">
-        <v>-0.02841159203062657</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01488442058333219</v>
+      </c>
+      <c r="E89">
+        <v>0.0686244162792146</v>
+      </c>
+      <c r="F89">
+        <v>-0.08910973551352397</v>
+      </c>
+      <c r="G89">
+        <v>0.005656538721410759</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1671801340030033</v>
+        <v>0.1925906092329514</v>
       </c>
       <c r="C90">
-        <v>-0.3367161852682991</v>
+        <v>-0.3138038257759842</v>
       </c>
       <c r="D90">
-        <v>-0.04378167113491096</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02128817232295494</v>
+      </c>
+      <c r="E90">
+        <v>0.05501052419328342</v>
+      </c>
+      <c r="F90">
+        <v>-0.03248792104154131</v>
+      </c>
+      <c r="G90">
+        <v>-0.01411251525701149</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.188918580958564</v>
+        <v>0.187203633952421</v>
       </c>
       <c r="C91">
-        <v>0.1211953666077918</v>
+        <v>0.1382642098611577</v>
       </c>
       <c r="D91">
-        <v>-0.1339675332006985</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1310148617230895</v>
+      </c>
+      <c r="E91">
+        <v>0.05006600304692424</v>
+      </c>
+      <c r="F91">
+        <v>0.01450885738102491</v>
+      </c>
+      <c r="G91">
+        <v>0.001381582273157477</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1582483417205013</v>
+        <v>0.1782977030152438</v>
       </c>
       <c r="C92">
-        <v>-0.2958748772036928</v>
+        <v>-0.2989061873507609</v>
       </c>
       <c r="D92">
-        <v>-0.02234848820007963</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01419199001019737</v>
+      </c>
+      <c r="E92">
+        <v>0.06087566880670258</v>
+      </c>
+      <c r="F92">
+        <v>-0.05717663893740522</v>
+      </c>
+      <c r="G92">
+        <v>-0.0256711298817545</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.187138942763263</v>
+        <v>0.2136335998731934</v>
       </c>
       <c r="C93">
-        <v>-0.3403503878972459</v>
+        <v>-0.3215562705634863</v>
       </c>
       <c r="D93">
-        <v>-0.04539720407469963</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02030394348322162</v>
+      </c>
+      <c r="E93">
+        <v>0.03692642295627123</v>
+      </c>
+      <c r="F93">
+        <v>-0.006278023661676194</v>
+      </c>
+      <c r="G93">
+        <v>-0.04289831905366631</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3440227370301553</v>
+        <v>0.3455288029146465</v>
       </c>
       <c r="C94">
-        <v>0.1252446682169127</v>
+        <v>0.1715864917102002</v>
       </c>
       <c r="D94">
-        <v>-0.3786496958641276</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4009302886317437</v>
+      </c>
+      <c r="E94">
+        <v>0.00176334923488847</v>
+      </c>
+      <c r="F94">
+        <v>0.1612353600223776</v>
+      </c>
+      <c r="G94">
+        <v>0.3887162176778292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1238275355567021</v>
+        <v>0.0908191578369931</v>
       </c>
       <c r="C95">
-        <v>0.04427809912041483</v>
+        <v>0.05376211860018465</v>
       </c>
       <c r="D95">
-        <v>0.2150824393776802</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1952814150884669</v>
+      </c>
+      <c r="E95">
+        <v>-0.1282275107724413</v>
+      </c>
+      <c r="F95">
+        <v>-0.664401579270629</v>
+      </c>
+      <c r="G95">
+        <v>0.6172544739747227</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1935042004398951</v>
+        <v>0.1872487481337241</v>
       </c>
       <c r="C98">
-        <v>0.03256274615395218</v>
+        <v>0.05033118867339523</v>
       </c>
       <c r="D98">
-        <v>0.1668508511873979</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.20477206189515</v>
+      </c>
+      <c r="E98">
+        <v>-0.1444236909498778</v>
+      </c>
+      <c r="F98">
+        <v>0.08115934672854579</v>
+      </c>
+      <c r="G98">
+        <v>-0.08054126469508303</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008186050353294947</v>
+        <v>0.007210290888416683</v>
       </c>
       <c r="C101">
-        <v>0.03156731468104054</v>
+        <v>0.02816467734969937</v>
       </c>
       <c r="D101">
-        <v>-0.01308557685035875</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01791573564551301</v>
+      </c>
+      <c r="E101">
+        <v>0.05288348846144658</v>
+      </c>
+      <c r="F101">
+        <v>-0.07707195446057544</v>
+      </c>
+      <c r="G101">
+        <v>-0.08171622035194102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1227662201299647</v>
+        <v>0.1263013306024909</v>
       </c>
       <c r="C102">
-        <v>0.06414257312486561</v>
+        <v>0.09657809058661028</v>
       </c>
       <c r="D102">
-        <v>-0.05087082855948482</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05960807293526669</v>
+      </c>
+      <c r="E102">
+        <v>-0.01360995233475006</v>
+      </c>
+      <c r="F102">
+        <v>-0.01930678199546609</v>
+      </c>
+      <c r="G102">
+        <v>0.01005838279145193</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
